--- a/biology/Médecine/1479_en_santé_et_médecine/1479_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1479_en_santé_et_médecine/1479_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1479_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1479_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1479 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1479_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1479_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er juin : cérémonie d'ouverture de l'université de Copenhague, fondée l'année 1478 précédente par Christian Ier, roi de Danemark, et qui comprend dès l'origine une faculté de médecine[1],[2].
-Le prince Jean de Portugal reçoit du pape Sixte IV la permission de réorganiser l'ensemble des hôpitaux de Lisbonne et, en 1502, quarante-trois petits établissements de la ville auront été agrégés au nouvel hôpital de Tous-les-Saints (Hospital Real de Todos os Santos[3]).
-Fondation à Pavie, en Lombardie, sous une administration entièrement laïque, de l'Ospedale degli Esposti (« hôpital des enfants-trouvés[4] »).
-Fondation par Nicolas Rougueulle d'un hôtel-Dieu à Conches au pays d'Ouche en Normandie[5].
-Une léproserie Saint-Jacques-et-Saint-Christophe est attestée à Gaillefontaine au pays de Caux en Normandie[6].
-Un hospice ou hôpital Saint-Jean est attesté à Sauqueville au pays de Caux, en Normandie[6].
-La ville lombarde de Pavie engage par contrat, comme médecin de peste, Giovanni de Ventura, docteur en médecine[7].
-1477-1479 : les épidémies qui sévissent dans le Nord de l'Italie font plus de quarante mille morts[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er juin : cérémonie d'ouverture de l'université de Copenhague, fondée l'année 1478 précédente par Christian Ier, roi de Danemark, et qui comprend dès l'origine une faculté de médecine,.
+Le prince Jean de Portugal reçoit du pape Sixte IV la permission de réorganiser l'ensemble des hôpitaux de Lisbonne et, en 1502, quarante-trois petits établissements de la ville auront été agrégés au nouvel hôpital de Tous-les-Saints (Hospital Real de Todos os Santos).
+Fondation à Pavie, en Lombardie, sous une administration entièrement laïque, de l'Ospedale degli Esposti (« hôpital des enfants-trouvés »).
+Fondation par Nicolas Rougueulle d'un hôtel-Dieu à Conches au pays d'Ouche en Normandie.
+Une léproserie Saint-Jacques-et-Saint-Christophe est attestée à Gaillefontaine au pays de Caux en Normandie.
+Un hospice ou hôpital Saint-Jean est attesté à Sauqueville au pays de Caux, en Normandie.
+La ville lombarde de Pavie engage par contrat, comme médecin de peste, Giovanni de Ventura, docteur en médecine.
+1477-1479 : les épidémies qui sévissent dans le Nord de l'Italie font plus de quarante mille morts.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1479_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1479_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition, à Venise, de l'Expositio in primum librum canonis Avicennae de Jacques de Forli (it) († 1414) (avec les  Recollectae de urinis d'Antonio Cermisone (it) († 1441[9]).
-Première édition, à Colle di Val d'Elsa, de la Practica maior de Michel Savonarole (1385-1468[10]).
-Le médecin tibétain Kyempa Tsewang rédige son commentaire des Quatre Tantras de la médecine[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition, à Venise, de l'Expositio in primum librum canonis Avicennae de Jacques de Forli (it) († 1414) (avec les  Recollectae de urinis d'Antonio Cermisone (it) († 1441).
+Première édition, à Colle di Val d'Elsa, de la Practica maior de Michel Savonarole (1385-1468).
+Le médecin tibétain Kyempa Tsewang rédige son commentaire des Quatre Tantras de la médecine.</t>
         </is>
       </c>
     </row>
